--- a/源码/Project/Kezhi.Web/Content/TemplateFile/上海科致宿舍信息模板.xlsx
+++ b/源码/Project/Kezhi.Web/Content/TemplateFile/上海科致宿舍信息模板.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,18 +35,6 @@
   </si>
   <si>
     <t>宿舍名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>项目编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宿舍详细地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>宿舍负责人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -162,9 +150,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -172,6 +157,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -454,626 +442,421 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.625" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="5" max="5" width="31.375" customWidth="1"/>
-    <col min="6" max="7" width="18.625" style="1"/>
+    <col min="4" max="4" width="18.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>8</v>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D16" s="2"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D17" s="2"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D19" s="2"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D20" s="2"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D35" s="2"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D36" s="2"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D37" s="2"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D42" s="2"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D43" s="2"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D45" s="2"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D46" s="2"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D47" s="2"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D48" s="2"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D49" s="2"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D50" s="2"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D51" s="2"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D52" s="2"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D56" s="2"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D59" s="2"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D60" s="2"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D61" s="2"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D62" s="2"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
+      <c r="D63" s="2"/>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="H21:H34" name="Range9_1_1_2_1" securityDescriptor=""/>
-    <protectedRange sqref="H5:H7" name="Range9_1_1_2" securityDescriptor=""/>
+    <protectedRange sqref="E21:E34" name="Range9_1_1_2_1" securityDescriptor=""/>
+    <protectedRange sqref="E5:E7" name="Range9_1_1_2" securityDescriptor=""/>
   </protectedRanges>
-  <mergeCells count="7">
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
+  <mergeCells count="4">
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
